--- a/Docs/Resultados Tesis.xlsx
+++ b/Docs/Resultados Tesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="375" windowWidth="20715" windowHeight="9210" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="435" windowWidth="20715" windowHeight="9150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DEFECTOS" sheetId="1" r:id="rId1"/>
@@ -7484,7 +7484,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
